--- a/image/questionnaire.xlsx
+++ b/image/questionnaire.xlsx
@@ -1475,46 +1475,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.5078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.40625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.38671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.82421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.1015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.78515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="119.75390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="121.05078125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/questionnaire.xlsx
+++ b/image/questionnaire.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="420">
   <si>
     <t>Path</t>
   </si>
@@ -172,7 +172,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -395,10 +395,6 @@
   </si>
   <si>
     <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the questionnaire</t>
@@ -1475,46 +1471,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.5078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="73.03125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.12109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.38671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.82421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="121.05078125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="119.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.74609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2920,16 +2916,16 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2994,13 +2990,13 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3011,7 +3007,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3034,19 +3030,19 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3095,7 +3091,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3104,7 +3100,7 @@
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>44</v>
@@ -3127,7 +3123,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3150,16 +3146,16 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3209,7 +3205,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3224,10 +3220,10 @@
         <v>44</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
@@ -3241,7 +3237,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3264,17 +3260,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3323,7 +3319,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3338,10 +3334,10 @@
         <v>44</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
@@ -3355,7 +3351,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3381,13 +3377,13 @@
         <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3413,52 +3409,52 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3469,7 +3465,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3492,19 +3488,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3553,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3568,13 +3564,13 @@
         <v>44</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3585,7 +3581,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3611,13 +3607,13 @@
         <v>69</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3643,14 +3639,14 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
       </c>
@@ -3667,7 +3663,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3682,10 +3678,10 @@
         <v>44</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3699,11 +3695,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3722,16 +3718,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3781,7 +3777,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3796,13 +3792,13 @@
         <v>44</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -3813,7 +3809,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3836,19 +3832,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3897,7 +3893,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3912,13 +3908,13 @@
         <v>44</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -3929,7 +3925,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3952,16 +3948,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4011,7 +4007,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4026,10 +4022,10 @@
         <v>44</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -4043,7 +4039,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4066,16 +4062,16 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4125,7 +4121,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4140,10 +4136,10 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -4157,7 +4153,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4180,19 +4176,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4241,7 +4237,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4256,10 +4252,10 @@
         <v>44</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -4273,7 +4269,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4296,16 +4292,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4331,14 +4327,14 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
       </c>
@@ -4355,7 +4351,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4370,10 +4366,10 @@
         <v>44</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4387,7 +4383,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4410,16 +4406,16 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4469,7 +4465,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4484,13 +4480,13 @@
         <v>44</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>121</v>
@@ -4501,11 +4497,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4524,17 +4520,17 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4583,7 +4579,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4598,10 +4594,10 @@
         <v>44</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4615,7 +4611,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4638,16 +4634,16 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4697,7 +4693,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4712,10 +4708,10 @@
         <v>44</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
@@ -4729,7 +4725,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4752,19 +4748,19 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4813,7 +4809,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4828,10 +4824,10 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
@@ -4845,7 +4841,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4868,19 +4864,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4929,7 +4925,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4944,10 +4940,10 @@
         <v>44</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
@@ -4961,7 +4957,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4984,17 +4980,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5019,14 +5015,14 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="X31" t="s" s="2">
+      <c r="Y31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5061,7 +5057,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -5075,7 +5071,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5098,16 +5094,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5157,7 +5153,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5166,16 +5162,16 @@
         <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AI32" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AI32" t="s" s="2">
+      <c r="AJ32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -5189,7 +5185,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5212,13 +5208,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5269,25 +5265,25 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5301,7 +5297,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5330,7 +5326,7 @@
         <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>98</v>
@@ -5383,7 +5379,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5401,7 +5397,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5415,11 +5411,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5441,10 +5437,10 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>98</v>
@@ -5499,7 +5495,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5531,7 +5527,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5554,19 +5550,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5615,7 +5611,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>50</v>
@@ -5633,7 +5629,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5647,7 +5643,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5673,16 +5669,16 @@
         <v>63</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5731,7 +5727,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5749,7 +5745,7 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5763,7 +5759,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5786,19 +5782,19 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5823,14 +5819,14 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X38" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="X38" t="s" s="2">
+      <c r="Y38" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
       </c>
@@ -5847,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5856,7 +5852,7 @@
         <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>44</v>
@@ -5865,7 +5861,7 @@
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5879,11 +5875,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5902,19 +5898,19 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5963,7 +5959,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5981,7 +5977,7 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5995,7 +5991,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6018,16 +6014,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6077,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6095,7 +6091,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -6109,7 +6105,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6135,16 +6131,16 @@
         <v>69</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6169,49 +6165,49 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -6225,7 +6221,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6248,19 +6244,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6309,7 +6305,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6321,13 +6317,13 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6341,7 +6337,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6364,13 +6360,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6421,25 +6417,25 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6453,7 +6449,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6482,7 +6478,7 @@
         <v>96</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>98</v>
@@ -6535,7 +6531,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6553,7 +6549,7 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6567,11 +6563,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6593,10 +6589,10 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>98</v>
@@ -6651,7 +6647,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6683,7 +6679,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6706,16 +6702,16 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6765,7 +6761,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>50</v>
@@ -6783,7 +6779,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6797,7 +6793,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6823,10 +6819,10 @@
         <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6853,14 +6849,14 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
       </c>
@@ -6877,7 +6873,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>50</v>
@@ -6895,7 +6891,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6909,7 +6905,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6932,13 +6928,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6965,41 +6961,41 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AI48" t="s" s="2">
         <v>44</v>
       </c>
@@ -7007,7 +7003,7 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -7021,7 +7017,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7047,13 +7043,13 @@
         <v>69</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7079,41 +7075,41 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AI49" t="s" s="2">
         <v>44</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -7135,7 +7131,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7158,78 +7154,78 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Q50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AI50" t="s" s="2">
         <v>44</v>
       </c>
@@ -7237,7 +7233,7 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
@@ -7251,7 +7247,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7274,26 +7270,26 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="Q51" t="s" s="2">
         <v>44</v>
       </c>
@@ -7337,7 +7333,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7346,7 +7342,7 @@
         <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>44</v>
@@ -7355,7 +7351,7 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
@@ -7369,7 +7365,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7392,19 +7388,19 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7453,7 +7449,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7462,7 +7458,7 @@
         <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>44</v>
@@ -7471,7 +7467,7 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
@@ -7485,7 +7481,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7508,16 +7504,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7567,7 +7563,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7576,7 +7572,7 @@
         <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>44</v>
@@ -7585,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7599,7 +7595,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7622,16 +7618,16 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7681,7 +7677,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7690,7 +7686,7 @@
         <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>44</v>
@@ -7699,7 +7695,7 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7713,7 +7709,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7736,16 +7732,16 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7795,7 +7791,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7804,16 +7800,16 @@
         <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7827,7 +7823,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7850,13 +7846,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7907,25 +7903,25 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7939,7 +7935,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7968,7 +7964,7 @@
         <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>98</v>
@@ -8021,7 +8017,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8039,7 +8035,7 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -8053,11 +8049,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8079,10 +8075,10 @@
         <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>98</v>
@@ -8137,7 +8133,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8169,7 +8165,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8192,16 +8188,16 @@
         <v>44</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8227,14 +8223,14 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
       </c>
@@ -8251,7 +8247,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>50</v>
@@ -8269,7 +8265,7 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
@@ -8283,7 +8279,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8306,23 +8302,23 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>44</v>
@@ -8367,7 +8363,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8385,7 +8381,7 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
@@ -8399,7 +8395,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8422,19 +8418,19 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8483,7 +8479,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8492,16 +8488,16 @@
         <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
@@ -8515,7 +8511,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8538,13 +8534,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8595,25 +8591,25 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
@@ -8627,7 +8623,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8656,7 +8652,7 @@
         <v>96</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>98</v>
@@ -8709,7 +8705,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8727,7 +8723,7 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
@@ -8741,11 +8737,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8767,10 +8763,10 @@
         <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>98</v>
@@ -8825,7 +8821,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8857,7 +8853,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8880,16 +8876,16 @@
         <v>44</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8915,14 +8911,14 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
       </c>
@@ -8939,7 +8935,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>50</v>
@@ -8957,7 +8953,7 @@
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
@@ -8971,7 +8967,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8997,16 +8993,16 @@
         <v>44</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>44</v>
@@ -9055,7 +9051,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9064,16 +9060,16 @@
         <v>43</v>
       </c>
       <c r="AH66" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
